--- a/aggregated_output/ROME_aggregated.xlsx
+++ b/aggregated_output/ROME_aggregated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,8 +437,36 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style
-Why: The page shown is a repository view with various files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would not consider this page as a step toward finding information about filing an issue. She would likely look for a more specific section or guide related to filing issues.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository view with files and some project information. There is no clear indication or direct link about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would need more explicit guidance or a clear path to find information about filing an issue. Additionally, her low computer self-efficacy means she might not feel confident navigating through unrelated information to find the relevant details.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with various files and information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy would make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -446,8 +474,36 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README.md file, making it accessible for Abi to read and find the necessary information.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README file, making it accessible for Abi to take this action.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README file, making it accessible for Abi to take this action.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she would likely read the README to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page provides a clear link to the README file, making it straightforward for Abi to take this action.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she is likely to read the README to gather necessary information. The page clearly lists the README.md file, making it accessible for Abi to read and find relevant details about filing an issue.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather necessary information. The page is structured and contains various sections that might guide her on how to file an issue.</t>
         </is>
       </c>
     </row>
@@ -455,8 +511,36 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. The lack of this information would likely leave her uncertain about the next steps, affecting her confidence in completing the task.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points, but it does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific guidance to feel confident that she is making progress toward her goal. The lack of this information in the README would likely leave her uncertain about the next steps.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After reading the README, Abi will not necessarily know that she is making progress toward her goal of finding information about how to file an issue. The README file shown in the image does not provide specific instructions on how to file an issue. It contains general information about the project, technologies used, and contact points, but it lacks clear, actionable steps for filing an issue. Given Abi's comprehensive information processing style, she would need more specific guidance to feel confident that she is on the right track. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress without explicit instructions.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points, but it does not include detailed steps or a direct link to file an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain about what to do next without explicit guidance.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide explicit instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and detailed steps to feel confident that she is making progress. Additionally, her low computer self-efficacy means she might feel uncertain and frustrated if the necessary information is not readily available.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed and specific guidance to feel confident that she is making progress toward her goal. The lack of explicit instructions would leave her uncertain about the next steps, affecting her confidence and making her feel she hasn't made progress.</t>
         </is>
       </c>
     </row>
@@ -464,8 +548,36 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to contribute, which likely includes filing an issue. The page provides a clear and direct link to this file, making it accessible for Abi to take this action.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page includes a clear link to the "Contribute.md" file, which is likely to contain information about contributing to the project, including how to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" link is a logical next step to find the information she needs. The page is straightforward and provides a clear path for her to follow.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, which suggests it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to file an issue. The page provides a clear indication that this file is relevant to her goal.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly mentions a "Contribute.md" file, which is a common place to find information about contributing to a project, including how to file issues. Given Abi's comprehensive information processing style, she would likely recognize this as a relevant document to read. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page provides a clear link to the Contribute.md file, making it straightforward for Abi to take this action.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page explicitly mentions "Contribute.md" under the "Want to help?" section, which suggests it contains information for contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she is likely to recognize that clicking on "Contribute.md" will provide relevant information about contributing to the project, including potentially how to file an issue. The page is clear and directs her to a specific document that is likely to contain the information she needs.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The README file explicitly mentions the "Contribute.md" file as a resource for those who want to contribute and are unsure how to start. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" link is a logical next step to find detailed instructions on how to file an issue. The page provides clear guidance, making it suitable for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -473,8 +585,36 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions on how to file an issue, including creating a "New Issue" in the GitLab page and providing as much detail as possible. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning. Abi will know she is making progress toward her goal and will have the necessary information to file an issue.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue and provides guidance on what information to include. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has found the relevant information and is making progress toward her goal. The detailed instructions will help her feel confident that she is on the right track.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report issues or request features. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the information she needs. The instructions are explicit and easy to follow, which aligns well with Abi's learning style.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The Contribute.md file provides clear and specific instructions on how to file an issue, including a dedicated section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which directly addresses Abi's goal. Given Abi's comprehensive information processing style, she will recognize that she is making progress toward her goal by following these detailed instructions. Additionally, her preference for process-oriented learning is supported by the step-by-step guidance provided in the document.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report a problem or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the information she needs. The instructions are explicit and easy to follow, which will help Abi feel confident that she is on the right track.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions on how to file an issue, including links to create a new issue on GitLab. This aligns well with Abi's comprehensive information processing style and preference for process-oriented learning. She will know she is making progress toward her goal and will have the necessary information to file an issue. The instructions are detailed and straightforward, making it easy for her to follow and complete the task.</t>
         </is>
       </c>
     </row>
@@ -482,17 +622,73 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Contribute.md" file includes a clear section titled "File an issue" with specific instructions on how to file an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. She will recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions provided will help her understand that she is on the right path.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contribute.md" file includes a specific section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the "File an issue" section will help her understand that she is on the right path.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contribute.md" file contains a specific section titled "File an issue," which directly addresses the subgoal of filing an issue. This section provides clear instructions on how to create a new issue in the GitLab project, making it evident that this is a step toward achieving the overall use case. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that following these instructions is a necessary step toward filing the issue for a merge request template.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Contribute.md file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the Contribute.md file will help her understand that she is on the right path.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which directly addresses the subgoal of filing an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she will recognize that filing the issue is a necessary step toward achieving the overall use case of having a merge request template. The instructions provided are clear and detailed, making it evident that this is the correct step to take.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contribute.md" file clearly outlines the steps for filing an issue, including a dedicated section titled "File an issue" with specific instructions and links. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions provide her with the confidence and clarity needed to proceed with filing the issue.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the GitLab page where issues can be filed. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that going to the list of issues is the next logical step. The instructions are straightforward and provide a clear path for her to follow, making the page good enough for Abi to take this action confidently.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Contribute.md" file provides instructions on filing an issue but does not explicitly guide Abi on how to navigate to the list of issues. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to explore the interface without explicit guidance. The page does not provide a direct link or clear instructions on how to access the list of issues, which could leave Abi uncertain about what to do next.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that going to the list of issues is the next logical step in the process. The instructions are explicit and provide a clear path forward, making it easy for Abi to know what to do at this step.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The Contribute.md file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style, she will recognize that going to the list of issues is a necessary step toward filing an issue. The document provides a direct link and context, making it straightforward for Abi to understand what to do next. Additionally, her preference for process-oriented learning is supported by the step-by-step guidance provided in the document.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that clicking on the link to the list of issues is the next logical step in the process of filing an issue. The page is well-structured and provides explicit guidance, making it clear what Abi needs to do next.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that going to the list of issues is the next logical step. The page provides clear guidance, making it suitable for Abi to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -500,8 +696,36 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right path. The page layout and the presence of the "New issue" button will make it evident to Abi that she can proceed to file a new issue, thus making progress toward her goal. The information is presented in a straightforward manner, which will help Abi feel confident that she is doing the right thing.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her comprehensive information processing style, as the page provides a clear indication that she is in the right place to file a new issue. The presence of the "New issue" button will make it evident that she can proceed with filing her issue, helping her feel confident that she is making progress toward her goal. The page layout and labeling provide the necessary guidance for her to take the next step.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right track. The page layout is straightforward and provides a clear next step for filing a new issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has the necessary information to proceed.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the Contribute.md file, confirming that she is on the right path. The page layout is straightforward and provides the necessary context for filing a new issue, which supports Abi's comprehensive information processing style and preference for process-oriented learning. She will know that she is making progress toward her goal and has the information she needs to proceed.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will know she is on the right page to view the list of issues, the page does not provide explicit instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear and detailed steps to feel confident that she is making progress. Additionally, her low computer self-efficacy means she might feel uncertain about what to do next without explicit guidance. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without further instructions.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will know she is on the right page to view the list of issues, the page does not provide explicit instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear and detailed guidance to feel confident she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit instructions. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without further guidance.</t>
         </is>
       </c>
     </row>
@@ -509,8 +733,36 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "New issue" button is prominently displayed on the issues list page, making it clear and easy for Abi to identify the next step. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking the "New issue" button is the appropriate action to take in order to file an issue. The page layout and the clear labeling of the button provide sufficient guidance for Abi to proceed confidently.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking the "New issue" button is the appropriate action to take in order to file an issue. The page layout and labeling provide sufficient guidance for her to proceed confidently.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed in green on the issues list page, making it easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step to file an issue. The page layout is clear and intuitive, providing a straightforward path for Abi to follow.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed on the issues list page, making it clear and straightforward for Abi to identify the next step. Given Abi's comprehensive information processing style, she will recognize that clicking this button is the appropriate action to take in order to file a new issue. The page layout and the clear labeling of the button support her process-oriented learning style, providing her with the confidence to proceed with this action.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed in green at the top right of the page, making it visually distinct and easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step in filing an issue. The page is clear and provides a straightforward action for her to take, which aligns with her need for explicit guidance.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking the "New issue" button is the next logical step to file an issue. The page provides a straightforward and intuitive action, making it suitable for Abi to take this step confidently.</t>
         </is>
       </c>
     </row>
@@ -518,8 +770,36 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking "New issue," Abi will land on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is making progress toward her goal. The clear layout and labeling of the form fields will help Abi understand that she is on the right path and provide her with the necessary information to complete the task.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are clearly labeled. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning, as the form provides a clear structure for entering the necessary information. The presence of the "Create issue" button at the bottom of the form further indicates that she is on the right track and making progress toward her goal. The page layout and instructions are clear and provide all the information she needs to file the issue.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue. The layout is clear and intuitive, providing all the necessary fields to complete the task, confirming that she is making progress toward her goal.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard components for filing an issue. Given Abi's comprehensive information processing style, she will recognize that she is on the correct page to file the issue. The clear layout and labeled fields support her process-oriented learning style, providing her with the confidence that she is making progress toward her goal and has all the information she needs to complete the task.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," Abi is taken to a straightforward form where she can enter the title and description of the issue. The page is clear and provides all the necessary fields to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal. The form is intuitive and provides a clear path to complete the task, ensuring that Abi knows she is on the right track and has all the information she needs to file the issue.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," Abi lands on a straightforward form to create a new issue. The form is clearly labeled with fields for the title, type, and description, and there are buttons to create or cancel the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue. The form provides all the necessary fields to input the required information, making it clear that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -527,8 +807,36 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take once the form is filled out. The page provides all the necessary information and guidance for Abi to complete this step confidently.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that filling out the form and clicking "Create issue" are the necessary steps to file the issue. The page provides all the information she needs to complete this action confidently.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The form for creating a new issue is straightforward and includes clearly labeled fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The page layout is intuitive, and the "Create issue" button is prominently displayed, making it clear what action to take next. This setup provides all the necessary information for Abi to complete the task confidently.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take next. The page layout and labeled fields support her process-oriented learning style, providing her with the confidence to complete the form and submit the issue.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The form is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that filling out the form and clicking "Create issue" is the next step. The page provides all the necessary information and guidance for her to complete the task confidently.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The form on the "New Issue" page is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" and "Cancel" buttons are also clearly visible. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out the form and submit it to file the issue. The page provides all the necessary fields and options, making it clear and easy for her to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -536,8 +844,36 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After submitting the issue, Abi will land on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, including options to edit, comment, or close the issue, which aligns with Abi's comprehensive information processing style and preference for process-oriented learning. This will reassure her that she did the right thing and has all the information she needs.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, Abi is taken to a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, including the issue title, description, and activity section, which aligns with her comprehensive information processing style and preference for process-oriented learning. This confirmation will reinforce that she did the right thing.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback confirms that she has successfully filed the issue, providing a sense of progress toward her goal. The page layout is clear and includes all relevant information about the issue, aligning with Abi's comprehensive information processing style and preference for process-oriented learning. This setup ensures that Abi knows she did the right thing and has all the information she needs.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, supporting her comprehensive information processing style and process-oriented learning style. She will know that she did the right thing and has all the information she needs.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, Abi is taken to a confirmation page that shows the newly created issue with all the details she entered. The page clearly indicates that the issue has been created, with a status of "Open" and the title and description she provided. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has successfully filed the issue and is making progress toward her goal. The confirmation page provides all the necessary information to assure her that she did the right thing.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. The page also provides options to edit the issue, add comments, and manage related items, which aligns with her comprehensive information processing style. The confirmation and visibility of the issue details will reassure Abi that she has done the right thing and is making progress toward her goal. The page provides all the necessary information and options, making it clear that she has successfully filed the issue.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/ROME_aggregated.xlsx
+++ b/aggregated_output/ROME_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view with files and some project information. There is no clear indication or direct link to filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about how to file an issue. Additionally, Abi's low computer self-efficacy means she might not feel confident navigating through unrelated information to find the relevant details.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next without explicit guidance.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some project information. There is no clear indication or direct link about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would need more explicit guidance or a clear path to find information about filing an issue. Additionally, her low computer self-efficacy means she might not feel confident navigating through unrelated information to find the relevant details.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about how to file an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with various files and information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy would make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README file, making it accessible for Abi to take this action.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she is likely to read the README file to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page clearly lists the README.md file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README file, making it accessible for Abi to take this action.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README.md file as a logical next step to gather more information. The page clearly lists the README.md file, making it accessible for Abi to click and read.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she would likely read the README to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page provides a clear link to the README file, making it straightforward for Abi to take this action.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather necessary information. The page clearly lists the README file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she is likely to read the README to gather necessary information. The page clearly lists the README.md file, making it accessible for Abi to read and find relevant details about filing an issue.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she would likely consider reading the README as a logical step to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page clearly lists the README file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather necessary information. The page is structured and contains various sections that might guide her on how to file an issue.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README.md file as a logical next step to gather more information. The page clearly lists the README.md file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points, but it does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific guidance to feel confident that she is making progress toward her goal. The lack of this information in the README would likely leave her uncertain about the next steps.</t>
+Why: After reading the README.md file, Abi will not find specific information about how to file an issue. The README.md file shown in the image provides general information about the project, technologies used, and contact points but does not include instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed steps or clear guidance to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy means she might feel uncertain and frustrated if the necessary information is not readily available.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not necessarily know that she is making progress toward her goal of finding information about how to file an issue. The README file shown in the image does not provide specific instructions on how to file an issue. It contains general information about the project, technologies used, and contact points, but it lacks clear, actionable steps for filing an issue. Given Abi's comprehensive information processing style, she would need more specific guidance to feel confident that she is on the right track. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress without explicit instructions.</t>
+Why: After reading the README.md file, Abi would not find specific information about how to file an issue. The README.md file shown in the image provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. Additionally, due to her low computer self-efficacy, the lack of explicit guidance would likely leave her uncertain about the next steps.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points, but it does not include detailed steps or a direct link to file an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain about what to do next without explicit guidance.</t>
+Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, leading to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide explicit instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and detailed steps to feel confident that she is making progress. Additionally, her low computer self-efficacy means she might feel uncertain and frustrated if the necessary information is not readily available.</t>
+Why: After reading the README file, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions or a direct link to file an issue. Given Abi's comprehensive information processing style, she would need detailed and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, leading to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed and specific guidance to feel confident that she is making progress toward her goal. The lack of explicit instructions would leave her uncertain about the next steps, affecting her confidence and making her feel she hasn't made progress.</t>
+Why: After reading the README.md file, Abi would expect to find clear and comprehensive information about how to file an issue. However, the provided page does not contain specific instructions or a direct link to file an issue. The information on the page is more about the project itself, technologies used, and contact points, but it lacks detailed steps or guidance on filing an issue. Given Abi's comprehensive information processing style, she would not feel confident that she has made progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear instructions.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page includes a clear link to the "Contribute.md" file, which is likely to contain information about contributing to the project, including how to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" link is a logical next step to find the information she needs. The page is straightforward and provides a clear path for her to follow.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style, she is likely to follow this clear instruction to gather more information. Additionally, her preference for process-oriented learning aligns with reading documentation that is specifically designed to guide new contributors. Therefore, Abi will know what to do at this step and will be motivated to click on the "Contribute.md" file.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, which suggests it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to file an issue. The page provides a clear indication that this file is relevant to her goal.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" file is a logical next step to find detailed instructions on how to contribute, which likely includes filing an issue. The page provides clear guidance, making it suitable for Abi to take this action.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly mentions a "Contribute.md" file, which is a common place to find information about contributing to a project, including how to file issues. Given Abi's comprehensive information processing style, she would likely recognize this as a relevant document to read. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page provides a clear link to the Contribute.md file, making it straightforward for Abi to take this action.</t>
+Why: The page explicitly mentions "Contribute.md" under the "Want to help?" section, which suggests it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely recognize that clicking on "Contribute.md" is a logical next step to find detailed instructions on how to file an issue. The page provides enough context for Abi to understand that this action is relevant to her goal.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions "Contribute.md" under the "Want to help?" section, which suggests it contains information for contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she is likely to recognize that clicking on "Contribute.md" will provide relevant information about contributing to the project, including potentially how to file an issue. The page is clear and directs her to a specific document that is likely to contain the information she needs.</t>
+Why: The page explicitly mentions "Want to contribute and not sure how to start? Please read the Contribute.md" under the "Want to help?" section. This clear instruction aligns with Abi's comprehensive information processing style and her preference for process-oriented learning. The presence of a direct link to the Contribute.md file provides a clear next step, making it likely that Abi will know what to do and feel confident in taking this action.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file explicitly mentions the "Contribute.md" file as a resource for those who want to contribute and are unsure how to start. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" link is a logical next step to find detailed instructions on how to file an issue. The page provides clear guidance, making it suitable for Abi to take this action.</t>
+Why: The page explicitly mentions "Want to contribute but not sure how to start? Please read the Contribute.md." This provides a clear indication that the Contribute.md file contains relevant information for contributing to the project, which likely includes how to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize this as a logical next step to gather the necessary information. The page is clear and direct enough for Abi to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue and provides guidance on what information to include. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has found the relevant information and is making progress toward her goal. The detailed instructions will help her feel confident that she is on the right track.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue and provides guidance on what information to include. Given Abi's comprehensive information processing style, she will appreciate the detailed and structured information. Additionally, her preference for process-oriented learning means she will find the step-by-step instructions helpful. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report issues or request features. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the information she needs. The instructions are explicit and easy to follow, which aligns well with Abi's learning style.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which directly addresses Abi's subgoal. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the necessary information to file an issue. The detailed and structured format of the instructions aligns well with her learning style, ensuring she feels confident in her actions.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear and specific instructions on how to file an issue, including a dedicated section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which directly addresses Abi's goal. Given Abi's comprehensive information processing style, she will recognize that she is making progress toward her goal by following these detailed instructions. Additionally, her preference for process-oriented learning is supported by the step-by-step guidance provided in the document.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report a bug or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has found the relevant information and is making progress toward her goal. The detailed instructions will help her feel confident that she is on the right track.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report a problem or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the information she needs. The instructions are explicit and easy to follow, which will help Abi feel confident that she is on the right track.</t>
+Why: The Contribute.md file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses the subgoal of finding information about how to file an issue. Given Abi's comprehensive information processing style, she will appreciate the detailed steps provided. Additionally, her preference for process-oriented learning is well-supported by the structured and step-by-step format of the Contribute.md file. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions on how to file an issue, including links to create a new issue on GitLab. This aligns well with Abi's comprehensive information processing style and preference for process-oriented learning. She will know she is making progress toward her goal and will have the necessary information to file an issue. The instructions are detailed and straightforward, making it easy for her to follow and complete the task.</t>
+Why: The Contribute.md file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's subgoal by providing the necessary steps to report a bug or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has made progress toward her goal and has found the information she needs. The instructions are straightforward and detailed, which aligns well with Abi's learning style and helps her feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -623,72 +623,72 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file includes a specific section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the "File an issue" section will help her understand that she is on the right path.</t>
+Why: The "Contribute.md" file clearly outlines the steps to file an issue, including a specific section titled "File an issue." This section provides detailed instructions on how to create a new issue, which aligns with Abi's goal of filing an issue to have a merge request template. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize this as a necessary step toward achieving her overall use case. The clear and structured information will help her feel confident that she is making progress.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file contains a specific section titled "File an issue," which directly addresses the subgoal of filing an issue. This section provides clear instructions on how to create a new issue in the GitLab project, making it evident that this is a step toward achieving the overall use case. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that following these instructions is a necessary step toward filing the issue for a merge request template.</t>
+Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the "Contribute.md" file would help her understand that she is on the right path and making progress toward her goal.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Contribute.md file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the Contribute.md file will help her understand that she is on the right path.</t>
+Why: The "Contribute.md" file includes a specific section titled "File an issue," which directly addresses the subgoal of filing an issue. This section provides clear instructions on how to report a bug or request a feature, which aligns with Abi's motivation to accomplish her task efficiently. Given Abi's comprehensive information processing style, she will recognize that following these instructions is a necessary step toward achieving her overall goal of filing an issue to have a merge request template.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which directly addresses the subgoal of filing an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she will recognize that filing the issue is a necessary step toward achieving the overall use case of having a merge request template. The instructions provided are clear and detailed, making it evident that this is the correct step to take.</t>
+Why: The Contribute.md file contains a specific section titled "File an issue," which provides clear instructions on how to file an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The detailed steps and direct guidance will help Abi understand that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. Therefore, she will recognize this as a step toward her goal.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file clearly outlines the steps for filing an issue, including a dedicated section titled "File an issue" with specific instructions and links. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions provide her with the confidence and clarity needed to proceed with filing the issue.</t>
+Why: The Contribute.md file contains a specific section titled "File an issue," which directly addresses Abi's subgoal of finding information about how to file an issue. This section provides clear instructions on how to report a bug or request a feature, which aligns with Abi's motivations to accomplish her task efficiently. Given her comprehensive information processing style, Abi would recognize that following these instructions is a necessary step toward achieving her overall use case of filing an issue to have a merge request template.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Contribute.md" file provides instructions on filing an issue but does not explicitly guide Abi on how to navigate to the list of issues. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to explore the interface without explicit guidance. The page does not provide a direct link or clear instructions on how to access the list of issues, which could leave Abi uncertain about what to do next.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style, she will follow the detailed steps provided in the documentation. Additionally, her preference for process-oriented learning means she will be comfortable following the explicit instructions to navigate to the list of issues. The page is good enough for Abi to take this action because it provides a clear and direct link to the next step in the process.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that going to the list of issues is the next logical step in the process. The instructions are explicit and provide a clear path forward, making it easy for Abi to know what to do at this step.</t>
+Why: The "Contribute.md" file provides clear instructions on filing an issue, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would understand that going to the list of issues is the next logical step in the process. The instructions are explicit and straightforward, making it clear what she needs to do next, which aligns well with her learning style.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style, she will recognize that going to the list of issues is a necessary step toward filing an issue. The document provides a direct link and context, making it straightforward for Abi to understand what to do next. Additionally, her preference for process-oriented learning is supported by the step-by-step guidance provided in the document.</t>
+Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that clicking on the link to the list of issues is the next logical step in the process of filing an issue. The page provides enough context and guidance for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that clicking on the link to the list of issues is the next logical step in the process of filing an issue. The page is well-structured and provides explicit guidance, making it clear what Abi needs to do next.</t>
+Why: The Contribute.md file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning. The explicit mention of creating a "New Issue" and the link to the issues page will guide Abi to know what to do next and feel confident in taking this action. The page is good enough for Abi to take this action because it provides the necessary information and direct guidance.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides a clear section titled "File an issue" with specific instructions, including a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that going to the list of issues is the next logical step. The page provides clear guidance, making it suitable for Abi to take this action confidently.</t>
+Why: The Contribute.md file provides clear instructions on how to file an issue, including a step to go to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that navigating to the list of issues is a necessary step in the process of filing an issue. The instructions are straightforward and detailed, making it clear what Abi needs to do next, which aligns well with her learning style and helps her feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -696,36 +696,36 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her comprehensive information processing style, as the page provides a clear indication that she is in the right place to file a new issue. The presence of the "New issue" button will make it evident that she can proceed with filing her issue, helping her feel confident that she is making progress toward her goal. The page layout and labeling provide the necessary guidance for her to take the next step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her goal of filing an issue, and the presence of the "New issue" button provides a clear next step. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward her goal. The page provides the necessary information and a straightforward way to proceed with filing the issue.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right track. The page layout is straightforward and provides a clear next step for filing a new issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has the necessary information to proceed.</t>
+Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that she is on the right path. The page is straightforward and provides a clear next step, which is to click the "New issue" button to file her issue. This clear progression and alignment with the instructions will help Abi feel confident that she is making progress toward her goal and has the information she needs to proceed.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the Contribute.md file, confirming that she is on the right path. The page layout is straightforward and provides the necessary context for filing a new issue, which supports Abi's comprehensive information processing style and preference for process-oriented learning. She will know that she is making progress toward her goal and has the information she needs to proceed.</t>
+Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her comprehensive information processing style, as she can see that she is in the right place to file a new issue. The presence of the "New issue" button provides a clear next step, making it evident that she is making progress toward her goal of filing an issue. The page layout and options are straightforward, ensuring that Abi can confidently proceed with filing the issue.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is on the right page to view the list of issues, the page does not provide explicit instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear and detailed steps to feel confident that she is making progress. Additionally, her low computer self-efficacy means she might feel uncertain about what to do next without explicit guidance. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without further instructions.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon landing on the list of issues page, Abi will see a clear "New issue" button at the top right corner of the page. This aligns with her motivation to accomplish her task and her comprehensive information processing style. The presence of the "New issue" button provides a clear next step, indicating that she is making progress toward her goal of filing an issue. The page is straightforward and provides the necessary information for Abi to proceed with filing the issue.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is on the right page to view the list of issues, the page does not provide explicit instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear and detailed guidance to feel confident she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit instructions. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without further guidance.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon reaching the list of issues, Abi will see a clear and familiar interface for managing issues, including a prominent "New issue" button. This aligns with her comprehensive information processing style, as she can see the existing issues and understand that she is in the right place to file a new one. The interface is straightforward and provides a clear next step, which matches her preference for process-oriented learning. Therefore, Abi will know that she is making progress toward her goal and has the necessary information to proceed with filing the issue.</t>
         </is>
       </c>
     </row>
@@ -734,35 +734,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking the "New issue" button is the appropriate action to take in order to file an issue. The page layout and labeling provide sufficient guidance for her to proceed confidently.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given Abi's comprehensive information processing style, she will recognize that clicking this button is the logical next action to file an issue. Additionally, her preference for process-oriented learning means she will follow the clear visual cue provided by the "New issue" button. The page is straightforward and provides the necessary guidance for Abi to take this action confidently.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in green on the issues list page, making it easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step to file an issue. The page layout is clear and intuitive, providing a straightforward path for Abi to follow.</t>
+Why: The "New issue" button is prominently displayed at the top right of the issues list page, making it easy to find. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step in filing an issue. The clear labeling and placement of the button provide sufficient guidance for her to take this action confidently.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the issues list page, making it clear and straightforward for Abi to identify the next step. Given Abi's comprehensive information processing style, she will recognize that clicking this button is the appropriate action to take in order to file a new issue. The page layout and the clear labeling of the button support her process-oriented learning style, providing her with the confidence to proceed with this action.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the appropriate action to take in order to file a new issue. The page layout and the clear labeling of the button provide sufficient guidance for Abi to proceed confidently.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in green at the top right of the page, making it visually distinct and easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step in filing an issue. The page is clear and provides a straightforward action for her to take, which aligns with her need for explicit guidance.</t>
+Why: The "New issue" button is prominently displayed at the top right corner of the page, making it easy for Abi to identify the next step. This aligns with her comprehensive information processing style, as the button is clearly labeled and positioned, reducing any ambiguity. Additionally, her preference for process-oriented learning is supported by the straightforward and intuitive design of the page, guiding her to take the action of clicking the "New issue" button. The page is good enough for Abi to take this action because it provides a clear and direct path to proceed.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking the "New issue" button is the next logical step to file an issue. The page provides a straightforward and intuitive action, making it suitable for Abi to take this step confidently.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style, she will recognize that clicking this button is the logical next action to take in order to file an issue. The interface is straightforward and provides a clear call to action, which aligns well with her preference for process-oriented learning. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -770,36 +770,36 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are clearly labeled. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning, as the form provides a clear structure for entering the necessary information. The presence of the "Create issue" button at the bottom of the form further indicates that she is on the right track and making progress toward her goal. The page layout and instructions are clear and provide all the information she needs to file the issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward her goal. The form is clear and provides all the necessary fields for Abi to input the required information to file the issue.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue. The layout is clear and intuitive, providing all the necessary fields to complete the task, confirming that she is making progress toward her goal.</t>
+Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the right path and making progress toward her goal. The form is clear and provides all the necessary fields for her to input the required information to file the issue.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard components for filing an issue. Given Abi's comprehensive information processing style, she will recognize that she is on the correct page to file the issue. The clear layout and labeled fields support her process-oriented learning style, providing her with the confidence that she is making progress toward her goal and has all the information she needs to complete the task.</t>
+Why: After clicking "New issue," Abi is taken to a straightforward form where she can enter the title, type, and description of the issue. The form is clearly labeled and provides all the necessary fields to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue and has all the information she needs to proceed. The clear layout and instructions will help her feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi is taken to a straightforward form where she can enter the title and description of the issue. The page is clear and provides all the necessary fields to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal. The form is intuitive and provides a clear path to complete the task, ensuring that Abi knows she is on the right track and has all the information she needs to file the issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "New issue," Abi lands on a page with a clear and straightforward form to create a new issue. The form includes fields for the title, type, and description, along with a "Create issue" button. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The page provides all the necessary fields and options to file an issue, making it clear that she is making progress toward her goal. The simplicity and clarity of the form ensure that Abi will know she did the right thing and has all the information she needs to complete the task.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi lands on a straightforward form to create a new issue. The form is clearly labeled with fields for the title, type, and description, and there are buttons to create or cancel the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue. The form provides all the necessary fields to input the required information, making it clear that she is making progress toward her goal.</t>
+Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard components for filing an issue. Given Abi's comprehensive information processing style, she will recognize that she is in the right place to provide the necessary details for filing the issue. The interface is clear and provides all the required fields, aligning with her preference for process-oriented learning. Therefore, Abi will know that she is making progress toward her goal and has the necessary information to complete the task.</t>
         </is>
       </c>
     </row>
@@ -808,35 +808,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that filling out the form and clicking "Create issue" are the necessary steps to file the issue. The page provides all the information she needs to complete this action confidently.</t>
+Why: The form for creating a new issue is straightforward and includes clear fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields to provide the necessary details for the issue. Additionally, her preference for process-oriented learning means she will follow the structured format of the form. The "Create issue" button is prominently displayed, making it clear how to submit the issue once the form is filled out. The page provides all the necessary guidance for Abi to take this action confidently.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and includes clearly labeled fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The page layout is intuitive, and the "Create issue" button is prominently displayed, making it clear what action to take next. This setup provides all the necessary information for Abi to complete the task confidently.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what she needs to do to submit the issue. The page provides all the necessary information and guidance for her to complete this action confidently.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take next. The page layout and labeled fields support her process-oriented learning style, providing her with the confidence to complete the form and submit the issue.</t>
+Why: The form is straightforward and clearly labeled, with fields for the title, type, and description of the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take once the form is completed. The page provides all the necessary information and guidance for Abi to confidently proceed with filing the issue.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that filling out the form and clicking "Create issue" is the next step. The page provides all the necessary information and guidance for her to complete the task confidently.</t>
+Why: The form on the "New Issue" page is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. This aligns with Abi's comprehensive information processing style, as the form provides all the necessary fields and options in a clear and organized manner. Additionally, her preference for process-oriented learning is supported by the intuitive design of the form, guiding her through the steps to file the issue. The page is good enough for Abi to take this action because it provides clear instructions and a simple interface for submitting the issue.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form on the "New Issue" page is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" and "Cancel" buttons are also clearly visible. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out the form and submit it to file the issue. The page provides all the necessary fields and options, making it clear and easy for her to take this action confidently.</t>
+Why: The form for creating a new issue is straightforward and includes clear fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields with the relevant information about the merge request template issue. The interface is user-friendly and provides a clear "Create issue" button, which aligns with her preference for process-oriented learning. Therefore, Abi will know what to do at this step and will feel confident in taking this action to file the issue.</t>
         </is>
       </c>
     </row>
@@ -844,36 +844,36 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi is taken to a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, including the issue title, description, and activity section, which aligns with her comprehensive information processing style and preference for process-oriented learning. This confirmation will reinforce that she did the right thing.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi know that she did the right thing and is making progress toward her goal. The page provides all the necessary information, including the issue title, description, and status, which aligns with Abi's comprehensive information processing style. The confirmation and visibility of the issue details will reassure Abi that she has successfully filed the issue.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback confirms that she has successfully filed the issue, providing a sense of progress toward her goal. The page layout is clear and includes all relevant information about the issue, aligning with Abi's comprehensive information processing style and preference for process-oriented learning. This setup ensures that Abi knows she did the right thing and has all the information she needs.</t>
+Why: After submitting the issue, Abi is taken to a confirmation page that shows the newly created issue with a status of "Open" and the details she entered. This page provides clear feedback that the issue has been successfully created, which will help Abi understand that she did the right thing and is making progress toward her goal. The page is well-organized and provides all the necessary information, including the issue title, description, and status, which aligns with Abi's comprehensive information processing style and preference for process-oriented learning.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, supporting her comprehensive information processing style and process-oriented learning style. She will know that she did the right thing and has all the information she needs.</t>
+Why: After submitting the issue, Abi is taken to a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, reinforcing that she has done the right thing. Given Abi's comprehensive information processing style and preference for process-oriented learning, this confirmation will help her feel confident that she has achieved her subgoal.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi is taken to a confirmation page that shows the newly created issue with all the details she entered. The page clearly indicates that the issue has been created, with a status of "Open" and the title and description she provided. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has successfully filed the issue and is making progress toward her goal. The confirmation page provides all the necessary information to assure her that she did the right thing.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After submitting the issue, Abi lands on a confirmation page that clearly shows the newly created issue with a status of "Open" and a message indicating that the issue was created. This provides immediate feedback that she has successfully filed the issue, aligning with her motivation to accomplish her task. The page also includes details about the issue, such as the title, description, and activity section, which supports her comprehensive information processing style by providing all relevant information in one place. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will have all the information she needs.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. The page also provides options to edit the issue, add comments, and manage related items, which aligns with her comprehensive information processing style. The confirmation and visibility of the issue details will reassure Abi that she has done the right thing and is making progress toward her goal. The page provides all the necessary information and options, making it clear that she has successfully filed the issue.</t>
+Why: After submitting the issue, Abi is taken to a confirmation page that shows the details of the newly created issue. The page clearly indicates that the issue has been created, with a status of "Open" and the details she provided. This immediate feedback aligns with Abi's comprehensive information processing style, as she can see that her action was successful and that she is making progress toward her goal. The interface is clear and provides all the necessary information, which aligns with her preference for process-oriented learning. Therefore, Abi will know that she did the right thing and has successfully filed the issue.</t>
         </is>
       </c>
     </row>
